--- a/Python Heat Transfer Analysis/solarDataTest.xlsx
+++ b/Python Heat Transfer Analysis/solarDataTest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5865" yWindow="2745" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1002,7 +1002,59 @@
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="8" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Light Drizzle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>43943.41666666666</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[2.833]</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>188.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="n"/>
@@ -1031,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -2332,6 +2384,1098 @@
         <v>25.2</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10:05:00</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>10:10:00</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>10:15:00</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10:25:00</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>17</v>
+      </c>
+      <c r="E68" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>10:35:00</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>21</v>
+      </c>
+      <c r="D70" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>10:45:00</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>10:50:00</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>10:55:00</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D74" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>11:05:00</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>11:10:00</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>24</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>18</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>11:25:00</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>11:35:00</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>11:45:00</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>26</v>
+      </c>
+      <c r="D83" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>11:50:00</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>11:55:00</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>19</v>
+      </c>
+      <c r="E86" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>12:05:00</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>19</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>12:10:00</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>12:25:00</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>29</v>
+      </c>
+      <c r="D92" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>12:35:00</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>12:40:00</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>12:45:00</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>12:50:00</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20</v>
+      </c>
+      <c r="E96" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12:55:00</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>13:05:00</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13:10:00</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>13:15:00</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>13:25:00</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>13:35:00</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>32</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>21</v>
+      </c>
+      <c r="E106" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>13:45:00</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>13:55:00</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14:05:00</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>14:10:00</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1/12/2019</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14:15:00</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
